--- a/database.xlsx
+++ b/database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="115">
   <si>
     <t>artista</t>
   </si>
@@ -31,12 +31,15 @@
     <t>duracao</t>
   </si>
   <si>
-    <t>nota</t>
+    <t>tonalidade</t>
   </si>
   <si>
     <t>energia</t>
   </si>
   <si>
+    <t>genero</t>
+  </si>
+  <si>
     <t>Harry Styles</t>
   </si>
   <si>
@@ -322,19 +325,40 @@
     <t>Estúdio</t>
   </si>
   <si>
-    <t>Curta</t>
-  </si>
-  <si>
-    <t>Média</t>
-  </si>
-  <si>
-    <t>Longa</t>
-  </si>
-  <si>
-    <t>Muito longa</t>
-  </si>
-  <si>
-    <t>Muito curta</t>
+    <t>Pop</t>
+  </si>
+  <si>
+    <t>Hip-Hop/Rap</t>
+  </si>
+  <si>
+    <t>Música Latina</t>
+  </si>
+  <si>
+    <t>K-Pop</t>
+  </si>
+  <si>
+    <t>Música Latina Urbana</t>
+  </si>
+  <si>
+    <t>Pop em Espanhol</t>
+  </si>
+  <si>
+    <t>Dance</t>
+  </si>
+  <si>
+    <t>R&amp;B/Soul</t>
+  </si>
+  <si>
+    <t>Indie Pop</t>
+  </si>
+  <si>
+    <t>Alternativa/Indie</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Alternativo</t>
   </si>
 </sst>
 </file>
@@ -692,13 +716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -720,25 +744,28 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2">
         <v>0.52</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="F2">
+        <v>2.79</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -746,25 +773,28 @@
       <c r="H2">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>0.62</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="F3">
+        <v>3.32</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -772,25 +802,28 @@
       <c r="H3">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>0.91</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="F4">
+        <v>2.98</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -798,25 +831,28 @@
       <c r="H4">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5">
         <v>0.65</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="F5">
+        <v>4.06</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -824,25 +860,28 @@
       <c r="H5">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>0.8</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="F6">
+        <v>3.12</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -850,25 +889,28 @@
       <c r="H6">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7">
         <v>0.84</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="F7">
+        <v>2.71</v>
       </c>
       <c r="G7">
         <v>7</v>
@@ -876,25 +918,28 @@
       <c r="H7">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8">
         <v>0.92</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="F8">
+        <v>2.62</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -902,25 +947,28 @@
       <c r="H8">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9">
         <v>0.5600000000000001</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="F9">
+        <v>2.92</v>
       </c>
       <c r="G9">
         <v>7</v>
@@ -928,25 +976,28 @@
       <c r="H9">
         <v>0.96</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <v>0.7</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="F10">
+        <v>2.47</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -954,25 +1005,28 @@
       <c r="H10">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11">
         <v>0.8</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F11" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="F11">
+        <v>3.55</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -980,25 +1034,28 @@
       <c r="H11">
         <v>0.48</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12">
         <v>0.73</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="F12">
+        <v>3.08</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -1006,25 +1063,28 @@
       <c r="H12">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D13">
         <v>0.44</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="F13">
+        <v>3.89</v>
       </c>
       <c r="G13">
         <v>8</v>
@@ -1032,25 +1092,28 @@
       <c r="H13">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14">
         <v>0.6899999999999999</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F14" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="F14">
+        <v>3.87</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1058,25 +1121,28 @@
       <c r="H14">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D15">
         <v>0.63</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="F15">
+        <v>4.98</v>
       </c>
       <c r="G15">
         <v>10</v>
@@ -1084,25 +1150,28 @@
       <c r="H15">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D16">
         <v>0.65</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="F16">
+        <v>4.3</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1110,25 +1179,28 @@
       <c r="H16">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D17">
         <v>0.95</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F17" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="F17">
+        <v>2.85</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1136,25 +1208,28 @@
       <c r="H17">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18">
         <v>0.5600000000000001</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="F18">
+        <v>2.99</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1162,25 +1237,28 @@
       <c r="H18">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D19">
         <v>0.76</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F19" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="F19">
+        <v>3.98</v>
       </c>
       <c r="G19">
         <v>11</v>
@@ -1188,25 +1266,28 @@
       <c r="H19">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20">
         <v>0.8</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="F20">
+        <v>4.1</v>
       </c>
       <c r="G20">
         <v>5</v>
@@ -1214,25 +1295,28 @@
       <c r="H20">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D21">
         <v>0.87</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="F21">
+        <v>3.5</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1240,25 +1324,28 @@
       <c r="H21">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22">
         <v>0.59</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="F22">
+        <v>2.36</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1266,25 +1353,28 @@
       <c r="H22">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23">
         <v>0.44</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
-      </c>
-      <c r="F23" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="F23">
+        <v>4.07</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -1292,25 +1382,28 @@
       <c r="H23">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24">
         <v>0.88</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="F24">
+        <v>2.57</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -1318,25 +1411,28 @@
       <c r="H24">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25">
         <v>0.35</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="F25">
+        <v>2.94</v>
       </c>
       <c r="G25">
         <v>10</v>
@@ -1344,25 +1440,28 @@
       <c r="H25">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26">
         <v>0.91</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="F26">
+        <v>1.62</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -1370,25 +1469,28 @@
       <c r="H26">
         <v>0.57</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27">
         <v>0.71</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="F27">
+        <v>2.97</v>
       </c>
       <c r="G27">
         <v>10</v>
@@ -1396,25 +1498,28 @@
       <c r="H27">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D28">
         <v>0.73</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
-      </c>
-      <c r="F28" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="F28">
+        <v>3.21</v>
       </c>
       <c r="G28">
         <v>5</v>
@@ -1422,25 +1527,28 @@
       <c r="H28">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D29">
         <v>0.88</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="F29">
+        <v>2.89</v>
       </c>
       <c r="G29">
         <v>10</v>
@@ -1448,25 +1556,28 @@
       <c r="H29">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D30">
         <v>0.84</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="F30">
+        <v>3.2</v>
       </c>
       <c r="G30">
         <v>10</v>
@@ -1474,25 +1585,28 @@
       <c r="H30">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D31">
         <v>0.77</v>
       </c>
       <c r="E31" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="F31">
+        <v>2.72</v>
       </c>
       <c r="G31">
         <v>10</v>
@@ -1500,25 +1614,28 @@
       <c r="H31">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D32">
         <v>0.7</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
-      </c>
-      <c r="F32" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="F32">
+        <v>2.36</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1526,25 +1643,28 @@
       <c r="H32">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D33">
         <v>0.59</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
-      </c>
-      <c r="F33" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="F33">
+        <v>4.34</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1552,25 +1672,28 @@
       <c r="H33">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D34">
         <v>0.6</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
-      </c>
-      <c r="F34" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="F34">
+        <v>2.55</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1578,25 +1701,28 @@
       <c r="H34">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D35">
         <v>0.47</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
-      </c>
-      <c r="F35" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="F35">
+        <v>4.08</v>
       </c>
       <c r="G35">
         <v>11</v>
@@ -1604,25 +1730,28 @@
       <c r="H35">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D36">
         <v>0.61</v>
       </c>
       <c r="E36" t="s">
-        <v>101</v>
-      </c>
-      <c r="F36" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="F36">
+        <v>4.01</v>
       </c>
       <c r="G36">
         <v>10</v>
@@ -1630,25 +1759,28 @@
       <c r="H36">
         <v>0.8100000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D37">
         <v>0.77</v>
       </c>
       <c r="E37" t="s">
-        <v>101</v>
-      </c>
-      <c r="F37" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="F37">
+        <v>2.75</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -1656,25 +1788,28 @@
       <c r="H37">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D38">
         <v>0.66</v>
       </c>
       <c r="E38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F38" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="F38">
+        <v>3.37</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1682,25 +1817,28 @@
       <c r="H38">
         <v>0.77</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D39">
         <v>0.85</v>
       </c>
       <c r="E39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F39" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="F39">
+        <v>3.11</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1708,25 +1846,28 @@
       <c r="H39">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D40">
         <v>0.8</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F40" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="F40">
+        <v>3.96</v>
       </c>
       <c r="G40">
         <v>11</v>
@@ -1734,25 +1875,28 @@
       <c r="H40">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D41">
         <v>0.63</v>
       </c>
       <c r="E41" t="s">
-        <v>101</v>
-      </c>
-      <c r="F41" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="F41">
+        <v>3.49</v>
       </c>
       <c r="G41">
         <v>11</v>
@@ -1760,25 +1904,28 @@
       <c r="H41">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D42">
         <v>0.8</v>
       </c>
       <c r="E42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F42" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="F42">
+        <v>3.38</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1786,25 +1933,28 @@
       <c r="H42">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D43">
         <v>0.7</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
-      </c>
-      <c r="F43" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="F43">
+        <v>2.87</v>
       </c>
       <c r="G43">
         <v>5</v>
@@ -1812,25 +1962,28 @@
       <c r="H43">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D44">
         <v>0.8</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
-      </c>
-      <c r="F44" t="s">
-        <v>102</v>
+        <v>102</v>
+      </c>
+      <c r="F44">
+        <v>3.05</v>
       </c>
       <c r="G44">
         <v>8</v>
@@ -1838,25 +1991,28 @@
       <c r="H44">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D45">
         <v>0.83</v>
       </c>
       <c r="E45" t="s">
-        <v>101</v>
-      </c>
-      <c r="F45" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="F45">
+        <v>3.79</v>
       </c>
       <c r="G45">
         <v>9</v>
@@ -1864,25 +2020,28 @@
       <c r="H45">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D46">
         <v>0.53</v>
       </c>
       <c r="E46" t="s">
-        <v>101</v>
-      </c>
-      <c r="F46" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="F46">
+        <v>3.64</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -1890,25 +2049,28 @@
       <c r="H46">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D47">
         <v>0.76</v>
       </c>
       <c r="E47" t="s">
-        <v>101</v>
-      </c>
-      <c r="F47" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="F47">
+        <v>3.43</v>
       </c>
       <c r="G47">
         <v>8</v>
@@ -1916,25 +2078,28 @@
       <c r="H47">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D48">
         <v>0.63</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
-      </c>
-      <c r="F48" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="F48">
+        <v>1.88</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -1942,25 +2107,28 @@
       <c r="H48">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D49">
         <v>0.51</v>
       </c>
       <c r="E49" t="s">
-        <v>101</v>
-      </c>
-      <c r="F49" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="F49">
+        <v>3.33</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -1968,25 +2136,28 @@
       <c r="H49">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D50">
         <v>0.83</v>
       </c>
       <c r="E50" t="s">
-        <v>101</v>
-      </c>
-      <c r="F50" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="F50">
+        <v>3.25</v>
       </c>
       <c r="G50">
         <v>11</v>
@@ -1994,31 +2165,37 @@
       <c r="H50">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D51">
         <v>0.52</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>104</v>
+        <v>102</v>
+      </c>
+      <c r="F51">
+        <v>4.23</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
         <v>0.85</v>
+      </c>
+      <c r="I51" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
